--- a/ESPN sports website/IPL/Gujarat Titans/Lockie Ferguson.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/Lockie Ferguson.xlsx
@@ -445,31 +445,31 @@
         <v>Lockie Ferguson</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>-</v>
+        <v>166.66</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>May 03, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
+        <v>Punjab Kings won by 8 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Lockie Ferguson</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>166.66</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>May 03, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 8 wickets (with 24 balls remaining)</v>
+        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
       </c>
     </row>
     <row r="4">
